--- a/受控文档/需求分析/QFD/PRD2018-G07-QFD 打分表合集.xlsx
+++ b/受控文档/需求分析/QFD/PRD2018-G07-QFD 打分表合集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="12720" windowHeight="8892" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="3" r:id="rId1"/>
@@ -191,6 +191,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>优先级</t>
     </r>
     <r>
@@ -1854,11 +1862,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1898,13 +1906,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1913,9 +1914,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1930,37 +2012,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1968,7 +2020,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1983,60 +2043,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2057,7 +2065,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2069,61 +2221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2135,109 +2245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2628,30 +2636,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -2672,11 +2656,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2692,6 +2682,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2714,10 +2722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2726,16 +2734,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2747,112 +2755,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3908,7 +3916,7 @@
   </sheetPr>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A82" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C82" workbookViewId="0">
       <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
@@ -4005,14 +4013,14 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" ht="14.55" spans="2:4">
       <c r="B12" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" ht="14.55" spans="2:2">
       <c r="B13" s="21"/>
     </row>
     <row r="14" ht="14.55" spans="1:12">
@@ -4151,8 +4159,8 @@
         <v>8</v>
       </c>
       <c r="J19" s="53">
-        <f>I19/(H19+G19)</f>
-        <v>0.5</v>
+        <f>I19*2.5/(H19+G19)</f>
+        <v>1.25</v>
       </c>
       <c r="K19" s="50"/>
       <c r="L19" s="51"/>
@@ -4184,8 +4192,8 @@
         <v>5.5</v>
       </c>
       <c r="J20" s="53">
-        <f t="shared" ref="J20:J51" si="1">I20/(H20+G20)</f>
-        <v>0.392857142857143</v>
+        <f t="shared" ref="J20:J51" si="1">I20*2.5/(H20+G20)</f>
+        <v>0.982142857142857</v>
       </c>
       <c r="K20" s="54"/>
       <c r="L20" s="55"/>
@@ -4217,7 +4225,7 @@
       </c>
       <c r="J21" s="53">
         <f t="shared" si="1"/>
-        <v>0.357142857142857</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="K21" s="50"/>
       <c r="L21" s="51"/>
@@ -4250,7 +4258,7 @@
       </c>
       <c r="J22" s="53">
         <f t="shared" si="1"/>
-        <v>0.321428571428571</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="K22" s="54"/>
       <c r="L22" s="55"/>
@@ -4282,7 +4290,7 @@
       </c>
       <c r="J23" s="53">
         <f t="shared" si="1"/>
-        <v>0.357142857142857</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="K23" s="54"/>
       <c r="L23" s="55"/>
@@ -4314,7 +4322,7 @@
       </c>
       <c r="J24" s="53">
         <f t="shared" si="1"/>
-        <v>0.583333333333333</v>
+        <v>1.45833333333333</v>
       </c>
       <c r="K24" s="54"/>
       <c r="L24" s="55"/>
@@ -4346,7 +4354,7 @@
       </c>
       <c r="J25" s="53">
         <f t="shared" si="1"/>
-        <v>0.535714285714286</v>
+        <v>1.33928571428571</v>
       </c>
       <c r="K25" s="54"/>
       <c r="L25" s="55"/>
@@ -4378,7 +4386,7 @@
       </c>
       <c r="J26" s="53">
         <f t="shared" si="1"/>
-        <v>0.464285714285714</v>
+        <v>1.16071428571429</v>
       </c>
       <c r="K26" s="50"/>
       <c r="L26" s="51"/>
@@ -4430,7 +4438,7 @@
       </c>
       <c r="J28" s="53">
         <f t="shared" si="1"/>
-        <v>0.40625</v>
+        <v>1.015625</v>
       </c>
       <c r="K28" s="54"/>
       <c r="L28" s="55"/>
@@ -4462,7 +4470,7 @@
       </c>
       <c r="J29" s="53">
         <f t="shared" si="1"/>
-        <v>0.666666666666667</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="K29" s="54"/>
       <c r="L29" s="55"/>
@@ -4494,7 +4502,7 @@
       </c>
       <c r="J30" s="53">
         <f t="shared" si="1"/>
-        <v>0.458333333333333</v>
+        <v>1.14583333333333</v>
       </c>
       <c r="K30" s="54"/>
       <c r="L30" s="55"/>
@@ -4526,7 +4534,7 @@
       </c>
       <c r="J31" s="53">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="K31" s="54"/>
       <c r="L31" s="55"/>
@@ -4558,7 +4566,7 @@
       </c>
       <c r="J32" s="53">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>1.125</v>
       </c>
       <c r="K32" s="54"/>
       <c r="L32" s="55"/>
@@ -4590,7 +4598,7 @@
       </c>
       <c r="J33" s="53">
         <f t="shared" si="1"/>
-        <v>0.357142857142857</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="K33" s="54"/>
       <c r="L33" s="55"/>
@@ -4622,7 +4630,7 @@
       </c>
       <c r="J34" s="53">
         <f t="shared" si="1"/>
-        <v>0.583333333333333</v>
+        <v>1.45833333333333</v>
       </c>
       <c r="K34" s="54"/>
       <c r="L34" s="55"/>
@@ -4654,7 +4662,7 @@
       </c>
       <c r="J35" s="53">
         <f t="shared" si="1"/>
-        <v>0.46875</v>
+        <v>1.171875</v>
       </c>
       <c r="K35" s="50"/>
       <c r="L35" s="51"/>
@@ -4687,7 +4695,7 @@
       </c>
       <c r="J36" s="53">
         <f t="shared" si="1"/>
-        <v>0.46875</v>
+        <v>1.171875</v>
       </c>
       <c r="K36" s="54"/>
       <c r="L36" s="55"/>
@@ -4719,7 +4727,7 @@
       </c>
       <c r="J37" s="53">
         <f t="shared" si="1"/>
-        <v>0.464285714285714</v>
+        <v>1.16071428571429</v>
       </c>
       <c r="K37" s="54"/>
       <c r="L37" s="55"/>
@@ -4751,7 +4759,7 @@
       </c>
       <c r="J38" s="53">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="K38" s="54"/>
       <c r="L38" s="55"/>
@@ -4783,7 +4791,7 @@
       </c>
       <c r="J39" s="53">
         <f t="shared" si="1"/>
-        <v>0.34375</v>
+        <v>0.859375</v>
       </c>
       <c r="K39" s="54"/>
       <c r="L39" s="55"/>
@@ -4815,7 +4823,7 @@
       </c>
       <c r="J40" s="53">
         <f t="shared" si="1"/>
-        <v>0.357142857142857</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="K40" s="50"/>
       <c r="L40" s="51"/>
@@ -4848,7 +4856,7 @@
       </c>
       <c r="J41" s="53">
         <f t="shared" si="1"/>
-        <v>0.28125</v>
+        <v>0.703125</v>
       </c>
       <c r="K41" s="50"/>
       <c r="L41" s="51"/>
@@ -4899,7 +4907,7 @@
       </c>
       <c r="J43" s="53">
         <f t="shared" si="1"/>
-        <v>0.40625</v>
+        <v>1.015625</v>
       </c>
       <c r="K43" s="54"/>
       <c r="L43" s="55"/>
@@ -4931,7 +4939,7 @@
       </c>
       <c r="J44" s="53">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="K44" s="54"/>
       <c r="L44" s="55"/>
@@ -4963,7 +4971,7 @@
       </c>
       <c r="J45" s="53">
         <f t="shared" si="1"/>
-        <v>0.541666666666667</v>
+        <v>1.35416666666667</v>
       </c>
       <c r="K45" s="54"/>
       <c r="L45" s="55"/>
@@ -4995,7 +5003,7 @@
       </c>
       <c r="J46" s="53">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="K46" s="54"/>
       <c r="L46" s="55"/>
@@ -5027,7 +5035,7 @@
       </c>
       <c r="J47" s="53">
         <f t="shared" si="1"/>
-        <v>0.6875</v>
+        <v>1.71875</v>
       </c>
       <c r="K47" s="54"/>
       <c r="L47" s="55"/>
@@ -5059,7 +5067,7 @@
       </c>
       <c r="J48" s="53">
         <f t="shared" si="1"/>
-        <v>0.357142857142857</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="K48" s="54"/>
       <c r="L48" s="55"/>
@@ -5091,7 +5099,7 @@
       </c>
       <c r="J49" s="53">
         <f t="shared" si="1"/>
-        <v>0.28125</v>
+        <v>0.703125</v>
       </c>
       <c r="K49" s="54"/>
       <c r="L49" s="55"/>
@@ -5123,7 +5131,7 @@
       </c>
       <c r="J50" s="53">
         <f t="shared" si="1"/>
-        <v>0.3125</v>
+        <v>0.78125</v>
       </c>
       <c r="K50" s="50"/>
       <c r="L50" s="51"/>
@@ -5156,7 +5164,7 @@
       </c>
       <c r="J51" s="53">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="K51" s="50"/>
       <c r="L51" s="51"/>
@@ -5188,8 +5196,8 @@
         <v>7.5</v>
       </c>
       <c r="J52" s="53">
-        <f t="shared" ref="J52:J83" si="2">I52/(H52+G52)</f>
-        <v>0.46875</v>
+        <f t="shared" ref="J52:J83" si="2">I52*2.5/(H52+G52)</f>
+        <v>1.171875</v>
       </c>
       <c r="K52" s="54"/>
       <c r="L52" s="55"/>
@@ -5239,7 +5247,7 @@
       </c>
       <c r="J54" s="53">
         <f t="shared" si="2"/>
-        <v>0.4375</v>
+        <v>1.09375</v>
       </c>
       <c r="K54" s="54"/>
       <c r="L54" s="55"/>
@@ -5271,7 +5279,7 @@
       </c>
       <c r="J55" s="53">
         <f t="shared" si="2"/>
-        <v>0.464285714285714</v>
+        <v>1.16071428571429</v>
       </c>
       <c r="K55" s="54"/>
       <c r="L55" s="55"/>
@@ -5303,7 +5311,7 @@
       </c>
       <c r="J56" s="53">
         <f t="shared" si="2"/>
-        <v>0.666666666666667</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="K56" s="54"/>
       <c r="L56" s="55"/>
@@ -5335,7 +5343,7 @@
       </c>
       <c r="J57" s="53">
         <f t="shared" si="2"/>
-        <v>0.55</v>
+        <v>1.375</v>
       </c>
       <c r="K57" s="54"/>
       <c r="L57" s="55"/>
@@ -5367,7 +5375,7 @@
       </c>
       <c r="J58" s="53">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="K58" s="54"/>
       <c r="L58" s="55"/>
@@ -5399,7 +5407,7 @@
       </c>
       <c r="J59" s="53">
         <f t="shared" si="2"/>
-        <v>0.375</v>
+        <v>0.9375</v>
       </c>
       <c r="K59" s="54"/>
       <c r="L59" s="55"/>
@@ -5431,7 +5439,7 @@
       </c>
       <c r="J60" s="53">
         <f t="shared" si="2"/>
-        <v>0.3125</v>
+        <v>0.78125</v>
       </c>
       <c r="K60" s="54"/>
       <c r="L60" s="55"/>
@@ -5463,7 +5471,7 @@
       </c>
       <c r="J61" s="53">
         <f t="shared" si="2"/>
-        <v>0.4375</v>
+        <v>1.09375</v>
       </c>
       <c r="K61" s="54"/>
       <c r="L61" s="55"/>
@@ -5495,7 +5503,7 @@
       </c>
       <c r="J62" s="53">
         <f t="shared" si="2"/>
-        <v>0.535714285714286</v>
+        <v>1.33928571428571</v>
       </c>
       <c r="K62" s="54"/>
       <c r="L62" s="55"/>
@@ -5527,7 +5535,7 @@
       </c>
       <c r="J63" s="53">
         <f t="shared" si="2"/>
-        <v>0.46875</v>
+        <v>1.171875</v>
       </c>
       <c r="K63" s="54"/>
       <c r="L63" s="55"/>
@@ -5577,7 +5585,7 @@
       </c>
       <c r="J65" s="53">
         <f t="shared" si="2"/>
-        <v>0.4375</v>
+        <v>1.09375</v>
       </c>
       <c r="K65" s="54"/>
       <c r="L65" s="55"/>
@@ -5609,7 +5617,7 @@
       </c>
       <c r="J66" s="53">
         <f t="shared" si="2"/>
-        <v>0.9375</v>
+        <v>2.34375</v>
       </c>
       <c r="K66" s="54"/>
       <c r="L66" s="55"/>
@@ -5641,7 +5649,7 @@
       </c>
       <c r="J67" s="53">
         <f t="shared" si="2"/>
-        <v>0.40625</v>
+        <v>1.015625</v>
       </c>
       <c r="K67" s="54"/>
       <c r="L67" s="55"/>
@@ -5673,7 +5681,7 @@
       </c>
       <c r="J68" s="53">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="K68" s="50"/>
       <c r="L68" s="51"/>
@@ -5706,7 +5714,7 @@
       </c>
       <c r="J69" s="53">
         <f t="shared" si="2"/>
-        <v>0.464285714285714</v>
+        <v>1.16071428571429</v>
       </c>
       <c r="K69" s="54"/>
       <c r="L69" s="55"/>
@@ -5738,7 +5746,7 @@
       </c>
       <c r="J70" s="53">
         <f t="shared" si="2"/>
-        <v>0.666666666666667</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="K70" s="54"/>
       <c r="L70" s="55"/>
@@ -5770,7 +5778,7 @@
       </c>
       <c r="J71" s="53">
         <f t="shared" si="2"/>
-        <v>0.34375</v>
+        <v>0.859375</v>
       </c>
       <c r="K71" s="50"/>
       <c r="L71" s="51"/>
@@ -5803,7 +5811,7 @@
       </c>
       <c r="J72" s="53">
         <f t="shared" si="2"/>
-        <v>0.3125</v>
+        <v>0.78125</v>
       </c>
       <c r="K72" s="54"/>
       <c r="L72" s="55"/>
@@ -5835,7 +5843,7 @@
       </c>
       <c r="J73" s="53">
         <f t="shared" si="2"/>
-        <v>0.28125</v>
+        <v>0.703125</v>
       </c>
       <c r="K73" s="54"/>
       <c r="L73" s="55"/>
@@ -5867,7 +5875,7 @@
       </c>
       <c r="J74" s="53">
         <f t="shared" si="2"/>
-        <v>0.3125</v>
+        <v>0.78125</v>
       </c>
       <c r="K74" s="54"/>
       <c r="L74" s="55"/>
@@ -5899,7 +5907,7 @@
       </c>
       <c r="J75" s="53">
         <f t="shared" si="2"/>
-        <v>0.4375</v>
+        <v>1.09375</v>
       </c>
       <c r="K75" s="54"/>
       <c r="L75" s="55"/>
@@ -5931,7 +5939,7 @@
       </c>
       <c r="J76" s="53">
         <f t="shared" si="2"/>
-        <v>0.535714285714286</v>
+        <v>1.33928571428571</v>
       </c>
       <c r="K76" s="50"/>
       <c r="L76" s="51"/>
@@ -5964,7 +5972,7 @@
       </c>
       <c r="J77" s="53">
         <f t="shared" si="2"/>
-        <v>0.625</v>
+        <v>1.5625</v>
       </c>
       <c r="K77" s="54"/>
       <c r="L77" s="55"/>
@@ -5996,7 +6004,7 @@
       </c>
       <c r="J78" s="53">
         <f t="shared" si="2"/>
-        <v>0.464285714285714</v>
+        <v>1.16071428571429</v>
       </c>
       <c r="K78" s="54"/>
       <c r="L78" s="55"/>
@@ -6028,7 +6036,7 @@
       </c>
       <c r="J79" s="53">
         <f t="shared" si="2"/>
-        <v>0.541666666666667</v>
+        <v>1.35416666666667</v>
       </c>
       <c r="K79" s="50"/>
       <c r="L79" s="51"/>
@@ -6061,7 +6069,7 @@
       </c>
       <c r="J80" s="53">
         <f t="shared" si="2"/>
-        <v>0.583333333333333</v>
+        <v>1.45833333333333</v>
       </c>
       <c r="K80" s="50"/>
       <c r="L80" s="51"/>
@@ -6094,7 +6102,7 @@
       </c>
       <c r="J81" s="53">
         <f t="shared" si="2"/>
-        <v>0.464285714285714</v>
+        <v>1.16071428571429</v>
       </c>
       <c r="K81" s="54"/>
       <c r="L81" s="55"/>
@@ -6126,7 +6134,7 @@
       </c>
       <c r="J82" s="53">
         <f t="shared" si="2"/>
-        <v>0.666666666666667</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="K82" s="54"/>
       <c r="L82" s="55"/>
@@ -6158,7 +6166,7 @@
       </c>
       <c r="J83" s="53">
         <f t="shared" si="2"/>
-        <v>0.34375</v>
+        <v>0.859375</v>
       </c>
       <c r="K83" s="54"/>
       <c r="L83" s="55"/>
@@ -6189,8 +6197,8 @@
         <v>5</v>
       </c>
       <c r="J84" s="53">
-        <f t="shared" ref="J84:J115" si="4">I84/(H84+G84)</f>
-        <v>0.416666666666667</v>
+        <f t="shared" ref="J84:J115" si="4">I84*2.5/(H84+G84)</f>
+        <v>1.04166666666667</v>
       </c>
       <c r="K84" s="54"/>
       <c r="L84" s="55"/>
@@ -6222,7 +6230,7 @@
       </c>
       <c r="J85" s="53">
         <f t="shared" si="4"/>
-        <v>0.375</v>
+        <v>0.9375</v>
       </c>
       <c r="K85" s="50"/>
       <c r="L85" s="51"/>
@@ -6273,7 +6281,7 @@
       </c>
       <c r="J87" s="53">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="K87" s="54"/>
       <c r="L87" s="55"/>
@@ -6305,7 +6313,7 @@
       </c>
       <c r="J88" s="53">
         <f t="shared" si="4"/>
-        <v>0.535714285714286</v>
+        <v>1.33928571428571</v>
       </c>
       <c r="K88" s="54"/>
       <c r="L88" s="55"/>
@@ -6337,7 +6345,7 @@
       </c>
       <c r="J89" s="53">
         <f t="shared" si="4"/>
-        <v>0.464285714285714</v>
+        <v>1.16071428571429</v>
       </c>
       <c r="K89" s="50"/>
       <c r="L89" s="51"/>
@@ -6370,7 +6378,7 @@
       </c>
       <c r="J90" s="53">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="K90" s="54"/>
       <c r="L90" s="55"/>
@@ -6402,7 +6410,7 @@
       </c>
       <c r="J91" s="53">
         <f t="shared" si="4"/>
-        <v>0.590909090909091</v>
+        <v>1.47727272727273</v>
       </c>
       <c r="K91" s="54"/>
       <c r="L91" s="55"/>
@@ -6434,7 +6442,7 @@
       </c>
       <c r="J92" s="53">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="K92" s="50"/>
       <c r="L92" s="51"/>
@@ -6467,7 +6475,7 @@
       </c>
       <c r="J93" s="53">
         <f t="shared" si="4"/>
-        <v>0.458333333333333</v>
+        <v>1.14583333333333</v>
       </c>
       <c r="K93" s="50"/>
       <c r="L93" s="51"/>
@@ -6500,7 +6508,7 @@
       </c>
       <c r="J94" s="53">
         <f t="shared" si="4"/>
-        <v>0.416666666666667</v>
+        <v>1.04166666666667</v>
       </c>
       <c r="K94" s="54"/>
       <c r="L94" s="55"/>
@@ -6532,7 +6540,7 @@
       </c>
       <c r="J95" s="53">
         <f t="shared" si="4"/>
-        <v>0.321428571428571</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="K95" s="54"/>
       <c r="L95" s="55"/>
@@ -6564,7 +6572,7 @@
       </c>
       <c r="J96" s="53">
         <f t="shared" si="4"/>
-        <v>0.357142857142857</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="K96" s="54"/>
       <c r="L96" s="55"/>
@@ -6596,7 +6604,7 @@
       </c>
       <c r="J97" s="53">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="K97" s="50"/>
       <c r="L97" s="51"/>
@@ -6629,7 +6637,7 @@
       </c>
       <c r="J98" s="53">
         <f t="shared" si="4"/>
-        <v>0.625</v>
+        <v>1.5625</v>
       </c>
       <c r="K98" s="50"/>
       <c r="L98" s="51"/>
@@ -6662,7 +6670,7 @@
       </c>
       <c r="J99" s="53">
         <f t="shared" si="4"/>
-        <v>0.535714285714286</v>
+        <v>1.33928571428571</v>
       </c>
       <c r="K99" s="54"/>
       <c r="L99" s="55"/>
@@ -6694,7 +6702,7 @@
       </c>
       <c r="J100" s="53">
         <f t="shared" si="4"/>
-        <v>0.8125</v>
+        <v>2.03125</v>
       </c>
       <c r="K100" s="54"/>
       <c r="L100" s="55"/>
@@ -6744,7 +6752,7 @@
       </c>
       <c r="J102" s="53">
         <f t="shared" si="4"/>
-        <v>0.4375</v>
+        <v>1.09375</v>
       </c>
       <c r="K102" s="50"/>
       <c r="L102" s="51"/>
@@ -6777,7 +6785,7 @@
       </c>
       <c r="J103" s="53">
         <f t="shared" si="4"/>
-        <v>0.541666666666667</v>
+        <v>1.35416666666667</v>
       </c>
       <c r="K103" s="54"/>
       <c r="L103" s="55"/>
@@ -6809,7 +6817,7 @@
       </c>
       <c r="J104" s="53">
         <f t="shared" si="4"/>
-        <v>0.666666666666667</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="K104" s="50"/>
       <c r="L104" s="51"/>
@@ -6842,7 +6850,7 @@
       </c>
       <c r="J105" s="53">
         <f t="shared" si="4"/>
-        <v>0.392857142857143</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="K105" s="54"/>
       <c r="L105" s="55"/>
@@ -6874,7 +6882,7 @@
       </c>
       <c r="J106" s="53">
         <f t="shared" si="4"/>
-        <v>0.357142857142857</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="K106" s="54"/>
       <c r="L106" s="55"/>
@@ -6906,7 +6914,7 @@
       </c>
       <c r="J107" s="53">
         <f t="shared" si="4"/>
-        <v>0.321428571428571</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="K107" s="50"/>
       <c r="L107" s="51"/>
@@ -6939,7 +6947,7 @@
       </c>
       <c r="J108" s="53">
         <f t="shared" si="4"/>
-        <v>0.357142857142857</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="K108" s="50"/>
       <c r="L108" s="51"/>
@@ -6972,7 +6980,7 @@
       </c>
       <c r="J109" s="53">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="K109" s="50"/>
       <c r="L109" s="51"/>
@@ -7005,7 +7013,7 @@
       </c>
       <c r="J110" s="53">
         <f t="shared" si="4"/>
-        <v>0.625</v>
+        <v>1.5625</v>
       </c>
       <c r="K110" s="54"/>
       <c r="L110" s="55"/>
@@ -7037,7 +7045,7 @@
       </c>
       <c r="J111" s="53">
         <f t="shared" si="4"/>
-        <v>0.541666666666667</v>
+        <v>1.35416666666667</v>
       </c>
       <c r="K111" s="54"/>
       <c r="L111" s="55"/>
@@ -7069,7 +7077,7 @@
       </c>
       <c r="J112" s="53">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="K112" s="50"/>
       <c r="L112" s="51"/>
@@ -7102,7 +7110,7 @@
       </c>
       <c r="J113" s="53">
         <f t="shared" si="4"/>
-        <v>0.464285714285714</v>
+        <v>1.16071428571429</v>
       </c>
       <c r="K113" s="54"/>
       <c r="L113" s="55"/>
@@ -7134,7 +7142,7 @@
       </c>
       <c r="J114" s="53">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="K114" s="54"/>
       <c r="L114" s="55"/>
@@ -7166,7 +7174,7 @@
       </c>
       <c r="J115" s="53">
         <f t="shared" si="4"/>
-        <v>0.392857142857143</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="K115" s="54"/>
       <c r="L115" s="55"/>
@@ -7197,8 +7205,8 @@
         <v>5</v>
       </c>
       <c r="J116" s="53">
-        <f>I116/(H116+G116)</f>
-        <v>0.357142857142857</v>
+        <f>I116*2.5/(H116+G116)</f>
+        <v>0.892857142857143</v>
       </c>
       <c r="K116" s="54"/>
       <c r="L116" s="55"/>
@@ -7229,8 +7237,8 @@
         <v>4.5</v>
       </c>
       <c r="J117" s="53">
-        <f>I117/(H117+G117)</f>
-        <v>0.28125</v>
+        <f>I117*2.5/(H117+G117)</f>
+        <v>0.703125</v>
       </c>
       <c r="K117" s="54"/>
       <c r="L117" s="55"/>
@@ -7261,8 +7269,8 @@
         <v>5</v>
       </c>
       <c r="J118" s="53">
-        <f>I118/(H118+G118)</f>
-        <v>0.3125</v>
+        <f>I118*2.5/(H118+G118)</f>
+        <v>0.78125</v>
       </c>
       <c r="K118" s="54"/>
       <c r="L118" s="55"/>
@@ -7293,8 +7301,8 @@
         <v>7</v>
       </c>
       <c r="J119" s="53">
-        <f>I119/(H119+G119)</f>
-        <v>0.5</v>
+        <f>I119*2.5/(H119+G119)</f>
+        <v>1.25</v>
       </c>
       <c r="K119" s="54"/>
       <c r="L119" s="55"/>
@@ -9517,7 +9525,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="G120 G54:G119 G19:G52 J120 H19 H54:H119 H20:H52" numberStoredAsText="1"/>
+    <ignoredError sqref="H20:H52 H54:H119 H19 J120 G19:G52 G54:G119 G120" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/受控文档/需求分析/QFD/PRD2018-G07-QFD 打分表合集.xlsx
+++ b/受控文档/需求分析/QFD/PRD2018-G07-QFD 打分表合集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16584" windowHeight="8807" activeTab="1"/>
+    <workbookView windowWidth="16511" windowHeight="9084" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="3" r:id="rId1"/>
@@ -570,160 +570,160 @@
     <t>1.1.8.1</t>
   </si>
   <si>
-    <t xml:space="preserve">         输入登录信息</t>
+    <t xml:space="preserve">    输入手机号登录信息</t>
   </si>
   <si>
     <t>1.1.8.2</t>
   </si>
   <si>
-    <t xml:space="preserve">    输入手机号登录信息</t>
+    <t xml:space="preserve">    输入邮箱登录信息</t>
   </si>
   <si>
     <t>1.1.8.3</t>
   </si>
   <si>
-    <t xml:space="preserve">    输入邮箱登录信息</t>
+    <t xml:space="preserve">    输入用户名登录信息</t>
   </si>
   <si>
     <t>1.1.8.4</t>
   </si>
   <si>
-    <t xml:space="preserve">    输入用户名登录信息</t>
+    <t xml:space="preserve">    QQ关联登录信息</t>
   </si>
   <si>
     <t>1.1.8.5</t>
   </si>
   <si>
-    <t xml:space="preserve">    QQ关联登录信息</t>
+    <t xml:space="preserve">    微信关联登录信息</t>
   </si>
   <si>
     <t>1.1.8.6</t>
   </si>
   <si>
-    <t xml:space="preserve">    微信关联登录信息</t>
+    <t xml:space="preserve">    微博关联登录信息</t>
   </si>
   <si>
     <t>1.1.8.7</t>
   </si>
   <si>
-    <t xml:space="preserve">    微博关联登录信息</t>
+    <t xml:space="preserve">    浏览个人信息</t>
   </si>
   <si>
     <t>1.1.8.8</t>
   </si>
   <si>
-    <t xml:space="preserve">    浏览个人信息</t>
+    <t xml:space="preserve">    编辑个人信息</t>
   </si>
   <si>
     <t>1.1.8.9</t>
   </si>
   <si>
-    <t xml:space="preserve">    编辑个人信息</t>
+    <t xml:space="preserve">    浏览个人动态</t>
   </si>
   <si>
     <t>1.1.8.10</t>
   </si>
   <si>
-    <t xml:space="preserve">    浏览个人动态</t>
+    <t xml:space="preserve">    浏览历史活动</t>
   </si>
   <si>
     <t>1.1.8.11</t>
   </si>
   <si>
-    <t xml:space="preserve">    浏览历史活动</t>
+    <t xml:space="preserve">    浏览创建的活动</t>
   </si>
   <si>
     <t>1.1.8.12</t>
   </si>
   <si>
-    <t xml:space="preserve">    浏览创建的活动</t>
-  </si>
-  <si>
     <t>1.1.8.13</t>
   </si>
   <si>
+    <t xml:space="preserve">   修改密码</t>
+  </si>
+  <si>
     <t>1.1.8.14</t>
   </si>
   <si>
-    <t xml:space="preserve">   修改密码</t>
+    <t xml:space="preserve">    输入旧密码</t>
   </si>
   <si>
     <t>1.1.8.15</t>
   </si>
   <si>
-    <t xml:space="preserve">    输入旧密码</t>
+    <t xml:space="preserve">    输入新密码</t>
   </si>
   <si>
     <t>1.1.8.16</t>
   </si>
   <si>
-    <t xml:space="preserve">    输入新密码</t>
+    <t xml:space="preserve">     确认新密码</t>
   </si>
   <si>
     <t>1.1.8.17</t>
   </si>
   <si>
-    <t xml:space="preserve">     确认新密码</t>
+    <t xml:space="preserve">    更换头像</t>
   </si>
   <si>
     <t>1.1.8.18</t>
   </si>
   <si>
-    <t xml:space="preserve">    更换头像</t>
+    <t xml:space="preserve">    选择上传头像</t>
   </si>
   <si>
     <t>1.1.8.19</t>
   </si>
   <si>
-    <t xml:space="preserve">    选择上传头像</t>
+    <t xml:space="preserve">    浏览收藏地点</t>
   </si>
   <si>
     <t>1.1.8.20</t>
   </si>
   <si>
-    <t xml:space="preserve">    浏览收藏地点</t>
+    <t xml:space="preserve">    浏览收藏活动</t>
   </si>
   <si>
     <t>1.1.8.21</t>
   </si>
   <si>
-    <t xml:space="preserve">    浏览收藏活动</t>
+    <t xml:space="preserve">    浏览收藏动态</t>
   </si>
   <si>
     <t>1.1.8.22</t>
   </si>
   <si>
-    <t xml:space="preserve">    浏览收藏动态</t>
+    <t xml:space="preserve">    修改个性签名</t>
   </si>
   <si>
     <t>1.1.8.23</t>
   </si>
   <si>
-    <t xml:space="preserve">    修改个性签名</t>
+    <t xml:space="preserve">    修改昵称</t>
   </si>
   <si>
     <t>1.1.8.24</t>
   </si>
   <si>
-    <t xml:space="preserve">    修改昵称</t>
+    <t xml:space="preserve">    修改用户QQ</t>
   </si>
   <si>
     <t>1.1.8.25</t>
   </si>
   <si>
-    <t xml:space="preserve">    修改用户QQ</t>
+    <t xml:space="preserve">    修改用户微信号</t>
   </si>
   <si>
     <t>1.1.8.26</t>
   </si>
   <si>
-    <t xml:space="preserve">    修改用户微信号</t>
+    <t xml:space="preserve">    修改用户性别</t>
   </si>
   <si>
     <t>1.1.8.27</t>
   </si>
   <si>
-    <t xml:space="preserve">    修改用户性别</t>
+    <t xml:space="preserve">    注册</t>
   </si>
   <si>
     <t>1.1.9</t>
@@ -2320,9 +2320,9 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2363,6 +2363,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2370,14 +2378,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2385,28 +2386,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2427,9 +2407,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2460,15 +2462,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2492,17 +2500,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2527,7 +2527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,31 +2539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2581,85 +2563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2677,13 +2587,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2695,19 +2695,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3090,6 +3090,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3105,17 +3116,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3129,11 +3149,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3161,32 +3187,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3195,10 +3195,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3207,16 +3207,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3225,115 +3225,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4457,8 +4457,8 @@
   </sheetPr>
   <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -4991,8 +4991,8 @@
         <v>7</v>
       </c>
       <c r="J28" s="49">
-        <f t="shared" si="0"/>
-        <v>0.583333333333333</v>
+        <f>(I28/(H28+G28)*2.5+8/(5+7)*0.5)/3</f>
+        <v>0.597222222222222</v>
       </c>
       <c r="K28" s="46"/>
       <c r="L28" s="47"/>
@@ -5023,8 +5023,8 @@
         <v>7</v>
       </c>
       <c r="J29" s="49">
-        <f t="shared" si="0"/>
-        <v>0.583333333333333</v>
+        <f>(I29/(H29+G29)*2.5+8/(5+7)*0.5)/3</f>
+        <v>0.597222222222222</v>
       </c>
       <c r="K29" s="46"/>
       <c r="L29" s="47"/>
@@ -5434,8 +5434,8 @@
         <v>9</v>
       </c>
       <c r="J43" s="49">
-        <f t="shared" ref="J43:J47" si="5">I43/(H43+G43)</f>
-        <v>0.642857142857143</v>
+        <f>(I43/(H43+G43)*2.5+9/(5+7)*0.5)/3</f>
+        <v>0.660714285714286</v>
       </c>
       <c r="K43" s="46"/>
       <c r="L43" s="47"/>
@@ -5463,12 +5463,12 @@
         <v>53</v>
       </c>
       <c r="I44" s="48">
-        <f t="shared" ref="I43:I47" si="6">AVERAGE(C44:D44)</f>
+        <f t="shared" ref="I43:I47" si="5">AVERAGE(C44:D44)</f>
         <v>8</v>
       </c>
       <c r="J44" s="49">
-        <f t="shared" si="5"/>
-        <v>0.666666666666667</v>
+        <f>(I44/(H44+G44)*2.5+9/(5+7)*0.5)/3</f>
+        <v>0.680555555555555</v>
       </c>
       <c r="K44" s="46"/>
       <c r="L44" s="47"/>
@@ -5499,8 +5499,8 @@
         <v>8</v>
       </c>
       <c r="J45" s="49">
-        <f t="shared" si="5"/>
-        <v>0.727272727272727</v>
+        <f>(I45/(H45+G45)*2.5+9/(5+7)*0.5)/3</f>
+        <v>0.731060606060606</v>
       </c>
       <c r="K45" s="46"/>
       <c r="L45" s="47"/>
@@ -5528,12 +5528,12 @@
         <v>60</v>
       </c>
       <c r="I46" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J46" s="49">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
+        <f>(I46/(H46+G46)*2.5+9/(5+7)*0.5)/3</f>
+        <v>0.541666666666667</v>
       </c>
       <c r="K46" s="46"/>
       <c r="L46" s="47"/>
@@ -5562,8 +5562,8 @@
         <v>8</v>
       </c>
       <c r="J47" s="49">
-        <f t="shared" si="5"/>
-        <v>0.666666666666667</v>
+        <f>(I47/(H47+G47)*2.5+9/(5+7)*0.5)/3</f>
+        <v>0.680555555555555</v>
       </c>
       <c r="K47" s="46"/>
       <c r="L47" s="47"/>
@@ -5614,7 +5614,7 @@
         <v>8</v>
       </c>
       <c r="J49" s="49">
-        <f t="shared" ref="J49:J52" si="7">I49/(H49+G49)</f>
+        <f>(I49/(H49+G49)*2.5+8/(5+7)*0.5)/3</f>
         <v>0.666666666666667</v>
       </c>
       <c r="K49" s="46"/>
@@ -5646,8 +5646,8 @@
         <v>8</v>
       </c>
       <c r="J50" s="49">
-        <f t="shared" si="7"/>
-        <v>0.727272727272727</v>
+        <f>(I50/(H50+G50)*2.5+8/(5+7)*0.5)/3</f>
+        <v>0.717171717171717</v>
       </c>
       <c r="K50" s="46"/>
       <c r="L50" s="47"/>
@@ -5678,8 +5678,8 @@
         <v>8</v>
       </c>
       <c r="J51" s="49">
-        <f t="shared" si="7"/>
-        <v>0.727272727272727</v>
+        <f>(I51/(H51+G51)*2.5+8/(5+7)*0.5)/3</f>
+        <v>0.717171717171717</v>
       </c>
       <c r="K51" s="46"/>
       <c r="L51" s="47"/>
@@ -5710,7 +5710,7 @@
         <v>8</v>
       </c>
       <c r="J52" s="49">
-        <f t="shared" si="7"/>
+        <f>(I52/(H52+G52)*2.5+8/(5+7)*0.5)/3</f>
         <v>0.666666666666667</v>
       </c>
       <c r="K52" s="46"/>
@@ -5761,7 +5761,7 @@
         <v>9</v>
       </c>
       <c r="J54" s="49">
-        <f t="shared" ref="J54:J60" si="8">I54/(H54+G54)</f>
+        <f t="shared" ref="J54:J60" si="6">I54/(H54+G54)</f>
         <v>0.6</v>
       </c>
       <c r="K54" s="46"/>
@@ -5793,7 +5793,7 @@
         <v>7</v>
       </c>
       <c r="J55" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="K55" s="46"/>
@@ -5826,7 +5826,7 @@
         <v>6.5</v>
       </c>
       <c r="J56" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.464285714285714</v>
       </c>
       <c r="K56" s="46"/>
@@ -5858,7 +5858,7 @@
         <v>6</v>
       </c>
       <c r="J57" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="K57" s="46"/>
@@ -5890,7 +5890,7 @@
         <v>8</v>
       </c>
       <c r="J58" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="K58" s="46"/>
@@ -5922,7 +5922,7 @@
         <v>9</v>
       </c>
       <c r="J59" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.5625</v>
       </c>
       <c r="K59" s="46"/>
@@ -5973,7 +5973,7 @@
         <v>9</v>
       </c>
       <c r="J61" s="49">
-        <f t="shared" ref="J61:J65" si="9">I61/(H61+G61)</f>
+        <f t="shared" ref="J61:J65" si="7">I61/(H61+G61)</f>
         <v>0.642857142857143</v>
       </c>
       <c r="K61" s="46"/>
@@ -6006,7 +6006,7 @@
         <v>8</v>
       </c>
       <c r="J62" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.666666666666667</v>
       </c>
       <c r="K62" s="46"/>
@@ -6038,7 +6038,7 @@
         <v>8</v>
       </c>
       <c r="J63" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.727272727272727</v>
       </c>
       <c r="K63" s="46"/>
@@ -6070,7 +6070,7 @@
         <v>8</v>
       </c>
       <c r="J64" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.666666666666667</v>
       </c>
       <c r="K64" s="46"/>
@@ -6102,7 +6102,7 @@
         <v>9</v>
       </c>
       <c r="J65" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.692307692307692</v>
       </c>
       <c r="K65" s="46"/>
@@ -6127,21 +6127,21 @@
       <c r="K66" s="63"/>
       <c r="L66" s="64"/>
     </row>
-    <row r="67" outlineLevel="4" spans="1:12">
+    <row r="67" s="4" customFormat="1" outlineLevel="3" spans="1:13">
       <c r="A67" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="40" t="s">
         <v>144</v>
       </c>
       <c r="C67" s="39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67" s="39">
-        <v>6</v>
-      </c>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
       <c r="G67" s="36" t="s">
         <v>48</v>
       </c>
@@ -6149,17 +6149,17 @@
         <v>53</v>
       </c>
       <c r="I67" s="48">
-        <f>AVERAGE(C67:D67)</f>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J67" s="49">
         <f>I67/(H67+G67)</f>
-        <v>0.541666666666667</v>
-      </c>
-      <c r="K67" s="63"/>
-      <c r="L67" s="64"/>
+        <v>0.5</v>
+      </c>
+      <c r="K67" s="46"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="10"/>
     </row>
-    <row r="68" s="4" customFormat="1" outlineLevel="3" spans="1:13">
+    <row r="68" outlineLevel="4" spans="1:12">
       <c r="A68" s="50" t="s">
         <v>145</v>
       </c>
@@ -6167,31 +6167,31 @@
         <v>146</v>
       </c>
       <c r="C68" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D68" s="39">
-        <v>8</v>
-      </c>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
       <c r="G68" s="36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I68" s="48">
-        <v>6</v>
+        <f>AVERAGE(C68:D68)</f>
+        <v>5</v>
       </c>
       <c r="J68" s="49">
         <f>I68/(H68+G68)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K68" s="46"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="10"/>
+        <v>0.357142857142857</v>
+      </c>
+      <c r="K68" s="63"/>
+      <c r="L68" s="64"/>
     </row>
-    <row r="69" outlineLevel="4" spans="1:12">
+    <row r="69" s="4" customFormat="1" outlineLevel="1" spans="1:13">
       <c r="A69" s="50" t="s">
         <v>147</v>
       </c>
@@ -6202,10 +6202,10 @@
         <v>5</v>
       </c>
       <c r="D69" s="39">
-        <v>5</v>
-      </c>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
+        <v>4</v>
+      </c>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
       <c r="G69" s="36" t="s">
         <v>44</v>
       </c>
@@ -6214,14 +6214,15 @@
       </c>
       <c r="I69" s="48">
         <f>AVERAGE(C69:D69)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J69" s="49">
         <f>I69/(H69+G69)</f>
-        <v>0.357142857142857</v>
-      </c>
-      <c r="K69" s="63"/>
-      <c r="L69" s="64"/>
+        <v>0.321428571428571</v>
+      </c>
+      <c r="K69" s="46"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="10"/>
     </row>
     <row r="70" s="4" customFormat="1" outlineLevel="1" spans="1:13">
       <c r="A70" s="50" t="s">
@@ -6234,7 +6235,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E70" s="35"/>
       <c r="F70" s="35"/>
@@ -6245,18 +6246,18 @@
         <v>45</v>
       </c>
       <c r="I70" s="48">
-        <f>AVERAGE(C70:D70)</f>
-        <v>4.5</v>
+        <f t="shared" ref="I70:I75" si="8">AVERAGE(C70:D70)</f>
+        <v>5</v>
       </c>
       <c r="J70" s="49">
-        <f>I70/(H70+G70)</f>
-        <v>0.321428571428571</v>
+        <f t="shared" ref="J70:J83" si="9">I70/(H70+G70)</f>
+        <v>0.357142857142857</v>
       </c>
       <c r="K70" s="46"/>
       <c r="L70" s="47"/>
       <c r="M70" s="10"/>
     </row>
-    <row r="71" s="4" customFormat="1" outlineLevel="1" spans="1:13">
+    <row r="71" outlineLevel="3" spans="1:12">
       <c r="A71" s="50" t="s">
         <v>151</v>
       </c>
@@ -6264,30 +6265,28 @@
         <v>152</v>
       </c>
       <c r="C71" s="39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D71" s="39">
-        <v>5</v>
-      </c>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
       <c r="G71" s="36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H71" s="37" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I71" s="48">
-        <f t="shared" ref="I71:I76" si="10">AVERAGE(C71:D71)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J71" s="49">
-        <f t="shared" ref="J71:J84" si="11">I71/(H71+G71)</f>
-        <v>0.357142857142857</v>
-      </c>
-      <c r="K71" s="46"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="10"/>
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K71" s="63"/>
+      <c r="L71" s="64"/>
     </row>
     <row r="72" outlineLevel="3" spans="1:12">
       <c r="A72" s="50" t="s">
@@ -6297,10 +6296,10 @@
         <v>154</v>
       </c>
       <c r="C72" s="39">
+        <v>6</v>
+      </c>
+      <c r="D72" s="39">
         <v>7</v>
-      </c>
-      <c r="D72" s="39">
-        <v>8</v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="42"/>
@@ -6311,11 +6310,12 @@
         <v>53</v>
       </c>
       <c r="I72" s="48">
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>6.5</v>
       </c>
       <c r="J72" s="49">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
+        <f t="shared" si="9"/>
+        <v>0.541666666666667</v>
       </c>
       <c r="K72" s="63"/>
       <c r="L72" s="64"/>
@@ -6328,26 +6328,26 @@
         <v>156</v>
       </c>
       <c r="C73" s="39">
+        <v>7</v>
+      </c>
+      <c r="D73" s="39">
         <v>6</v>
-      </c>
-      <c r="D73" s="39">
-        <v>7</v>
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="42"/>
       <c r="G73" s="36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H73" s="37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I73" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="J73" s="49">
-        <f t="shared" si="11"/>
-        <v>0.541666666666667</v>
+        <f t="shared" si="9"/>
+        <v>0.464285714285714</v>
       </c>
       <c r="K73" s="63"/>
       <c r="L73" s="64"/>
@@ -6360,26 +6360,25 @@
         <v>158</v>
       </c>
       <c r="C74" s="39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" s="39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E74" s="42"/>
       <c r="F74" s="42"/>
       <c r="G74" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H74" s="37" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I74" s="48">
-        <f t="shared" si="10"/>
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="J74" s="49">
-        <f t="shared" si="11"/>
-        <v>0.464285714285714</v>
+        <f t="shared" si="9"/>
+        <v>0.4</v>
       </c>
       <c r="K74" s="63"/>
       <c r="L74" s="64"/>
@@ -6392,25 +6391,26 @@
         <v>160</v>
       </c>
       <c r="C75" s="39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D75" s="39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E75" s="42"/>
       <c r="F75" s="42"/>
       <c r="G75" s="36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H75" s="37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I75" s="48">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>6.5</v>
       </c>
       <c r="J75" s="49">
-        <f t="shared" si="11"/>
-        <v>0.4</v>
+        <f t="shared" si="9"/>
+        <v>0.541666666666667</v>
       </c>
       <c r="K75" s="63"/>
       <c r="L75" s="64"/>
@@ -6423,13 +6423,13 @@
         <v>162</v>
       </c>
       <c r="C76" s="39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D76" s="39">
-        <v>6</v>
-      </c>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
       <c r="G76" s="36" t="s">
         <v>48</v>
       </c>
@@ -6437,12 +6437,11 @@
         <v>53</v>
       </c>
       <c r="I76" s="48">
-        <f t="shared" si="10"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J76" s="49">
-        <f t="shared" si="11"/>
-        <v>0.541666666666667</v>
+        <f t="shared" si="9"/>
+        <v>0.5</v>
       </c>
       <c r="K76" s="63"/>
       <c r="L76" s="64"/>
@@ -6455,25 +6454,26 @@
         <v>164</v>
       </c>
       <c r="C77" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D77" s="39">
-        <v>8</v>
-      </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
       <c r="G77" s="36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I77" s="48">
-        <v>6</v>
+        <f t="shared" ref="I77:I82" si="10">AVERAGE(C77:D77)</f>
+        <v>5</v>
       </c>
       <c r="J77" s="49">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
+        <f t="shared" si="9"/>
+        <v>0.357142857142857</v>
       </c>
       <c r="K77" s="63"/>
       <c r="L77" s="64"/>
@@ -6483,16 +6483,16 @@
         <v>165</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C78" s="39">
         <v>5</v>
       </c>
       <c r="D78" s="39">
-        <v>5</v>
-      </c>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
+        <v>4</v>
+      </c>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
       <c r="G78" s="36" t="s">
         <v>44</v>
       </c>
@@ -6500,28 +6500,28 @@
         <v>45</v>
       </c>
       <c r="I78" s="48">
-        <f t="shared" ref="I78:I83" si="12">AVERAGE(C78:D78)</f>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>4.5</v>
       </c>
       <c r="J78" s="49">
-        <f t="shared" si="11"/>
-        <v>0.357142857142857</v>
+        <f t="shared" si="9"/>
+        <v>0.321428571428571</v>
       </c>
       <c r="K78" s="63"/>
       <c r="L78" s="64"/>
     </row>
     <row r="79" outlineLevel="3" spans="1:12">
       <c r="A79" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="40" t="s">
         <v>167</v>
-      </c>
-      <c r="B79" s="40" t="s">
-        <v>164</v>
       </c>
       <c r="C79" s="39">
         <v>5</v>
       </c>
       <c r="D79" s="39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E79" s="35"/>
       <c r="F79" s="35"/>
@@ -6532,12 +6532,12 @@
         <v>45</v>
       </c>
       <c r="I79" s="48">
-        <f t="shared" si="12"/>
-        <v>4.5</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="J79" s="49">
-        <f t="shared" si="11"/>
-        <v>0.321428571428571</v>
+        <f t="shared" si="9"/>
+        <v>0.357142857142857</v>
       </c>
       <c r="K79" s="63"/>
       <c r="L79" s="64"/>
@@ -6550,26 +6550,25 @@
         <v>169</v>
       </c>
       <c r="C80" s="39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D80" s="39">
-        <v>5</v>
-      </c>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
       <c r="G80" s="36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I80" s="48">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J80" s="49">
-        <f t="shared" si="11"/>
-        <v>0.357142857142857</v>
+        <f t="shared" si="9"/>
+        <v>0.583333333333333</v>
       </c>
       <c r="K80" s="63"/>
       <c r="L80" s="64"/>
@@ -6582,10 +6581,10 @@
         <v>171</v>
       </c>
       <c r="C81" s="39">
+        <v>6</v>
+      </c>
+      <c r="D81" s="39">
         <v>7</v>
-      </c>
-      <c r="D81" s="39">
-        <v>8</v>
       </c>
       <c r="E81" s="42"/>
       <c r="F81" s="42"/>
@@ -6596,11 +6595,12 @@
         <v>53</v>
       </c>
       <c r="I81" s="48">
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>6.5</v>
       </c>
       <c r="J81" s="49">
-        <f t="shared" si="11"/>
-        <v>0.583333333333333</v>
+        <f t="shared" si="9"/>
+        <v>0.541666666666667</v>
       </c>
       <c r="K81" s="63"/>
       <c r="L81" s="64"/>
@@ -6613,26 +6613,26 @@
         <v>173</v>
       </c>
       <c r="C82" s="39">
+        <v>7</v>
+      </c>
+      <c r="D82" s="39">
         <v>6</v>
-      </c>
-      <c r="D82" s="39">
-        <v>7</v>
       </c>
       <c r="E82" s="42"/>
       <c r="F82" s="42"/>
       <c r="G82" s="36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I82" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.5</v>
       </c>
       <c r="J82" s="49">
-        <f t="shared" si="11"/>
-        <v>0.541666666666667</v>
+        <f t="shared" si="9"/>
+        <v>0.464285714285714</v>
       </c>
       <c r="K82" s="63"/>
       <c r="L82" s="64"/>
@@ -6645,26 +6645,25 @@
         <v>175</v>
       </c>
       <c r="C83" s="39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" s="39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E83" s="42"/>
       <c r="F83" s="42"/>
       <c r="G83" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H83" s="37" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I83" s="48">
-        <f t="shared" si="12"/>
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="J83" s="49">
-        <f t="shared" si="11"/>
-        <v>0.464285714285714</v>
+        <f t="shared" si="9"/>
+        <v>0.4</v>
       </c>
       <c r="K83" s="63"/>
       <c r="L83" s="64"/>
@@ -6677,25 +6676,26 @@
         <v>177</v>
       </c>
       <c r="C84" s="39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84" s="39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E84" s="42"/>
       <c r="F84" s="42"/>
       <c r="G84" s="36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H84" s="37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I84" s="48">
-        <v>4</v>
+        <f t="shared" ref="I84:I91" si="11">AVERAGE(C84:D84)</f>
+        <v>6.5</v>
       </c>
       <c r="J84" s="49">
-        <f t="shared" si="11"/>
-        <v>0.4</v>
+        <f t="shared" ref="J84:J94" si="12">I84/(H84+G84)</f>
+        <v>0.541666666666667</v>
       </c>
       <c r="K84" s="63"/>
       <c r="L84" s="64"/>
@@ -6708,13 +6708,13 @@
         <v>179</v>
       </c>
       <c r="C85" s="39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85" s="39">
-        <v>6</v>
-      </c>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
       <c r="G85" s="36" t="s">
         <v>48</v>
       </c>
@@ -6722,12 +6722,11 @@
         <v>53</v>
       </c>
       <c r="I85" s="48">
-        <f t="shared" ref="I85:I92" si="13">AVERAGE(C85:D85)</f>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J85" s="49">
-        <f t="shared" ref="J85:J94" si="14">I85/(H85+G85)</f>
-        <v>0.541666666666667</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="K85" s="63"/>
       <c r="L85" s="64"/>
@@ -6740,25 +6739,26 @@
         <v>181</v>
       </c>
       <c r="C86" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D86" s="39">
-        <v>8</v>
-      </c>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
       <c r="G86" s="36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H86" s="37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I86" s="48">
-        <v>6</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="J86" s="49">
-        <f t="shared" si="14"/>
-        <v>0.5</v>
+        <f t="shared" si="12"/>
+        <v>0.357142857142857</v>
       </c>
       <c r="K86" s="63"/>
       <c r="L86" s="64"/>
@@ -6774,10 +6774,10 @@
         <v>5</v>
       </c>
       <c r="D87" s="39">
-        <v>5</v>
-      </c>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
+        <v>4</v>
+      </c>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
       <c r="G87" s="36" t="s">
         <v>44</v>
       </c>
@@ -6785,12 +6785,12 @@
         <v>45</v>
       </c>
       <c r="I87" s="48">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>4.5</v>
       </c>
       <c r="J87" s="49">
-        <f t="shared" si="14"/>
-        <v>0.357142857142857</v>
+        <f t="shared" si="12"/>
+        <v>0.321428571428571</v>
       </c>
       <c r="K87" s="63"/>
       <c r="L87" s="64"/>
@@ -6806,7 +6806,7 @@
         <v>5</v>
       </c>
       <c r="D88" s="39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E88" s="35"/>
       <c r="F88" s="35"/>
@@ -6817,12 +6817,12 @@
         <v>45</v>
       </c>
       <c r="I88" s="48">
-        <f t="shared" si="13"/>
-        <v>4.5</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="J88" s="49">
-        <f t="shared" si="14"/>
-        <v>0.321428571428571</v>
+        <f t="shared" si="12"/>
+        <v>0.357142857142857</v>
       </c>
       <c r="K88" s="63"/>
       <c r="L88" s="64"/>
@@ -6835,26 +6835,25 @@
         <v>187</v>
       </c>
       <c r="C89" s="39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D89" s="39">
-        <v>5</v>
-      </c>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
       <c r="G89" s="36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H89" s="37" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I89" s="48">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J89" s="49">
-        <f t="shared" si="14"/>
-        <v>0.357142857142857</v>
+        <f t="shared" si="12"/>
+        <v>0.583333333333333</v>
       </c>
       <c r="K89" s="63"/>
       <c r="L89" s="64"/>
@@ -6867,10 +6866,10 @@
         <v>189</v>
       </c>
       <c r="C90" s="39">
+        <v>6</v>
+      </c>
+      <c r="D90" s="39">
         <v>7</v>
-      </c>
-      <c r="D90" s="39">
-        <v>8</v>
       </c>
       <c r="E90" s="42"/>
       <c r="F90" s="42"/>
@@ -6881,11 +6880,12 @@
         <v>53</v>
       </c>
       <c r="I90" s="48">
-        <v>7</v>
+        <f t="shared" si="11"/>
+        <v>6.5</v>
       </c>
       <c r="J90" s="49">
-        <f t="shared" si="14"/>
-        <v>0.583333333333333</v>
+        <f t="shared" si="12"/>
+        <v>0.541666666666667</v>
       </c>
       <c r="K90" s="63"/>
       <c r="L90" s="64"/>
@@ -6898,26 +6898,26 @@
         <v>191</v>
       </c>
       <c r="C91" s="39">
+        <v>7</v>
+      </c>
+      <c r="D91" s="39">
         <v>6</v>
-      </c>
-      <c r="D91" s="39">
-        <v>7</v>
       </c>
       <c r="E91" s="42"/>
       <c r="F91" s="42"/>
       <c r="G91" s="36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H91" s="37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I91" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6.5</v>
       </c>
       <c r="J91" s="49">
-        <f t="shared" si="14"/>
-        <v>0.541666666666667</v>
+        <f t="shared" si="12"/>
+        <v>0.464285714285714</v>
       </c>
       <c r="K91" s="63"/>
       <c r="L91" s="64"/>
@@ -6930,31 +6930,30 @@
         <v>193</v>
       </c>
       <c r="C92" s="39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D92" s="39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E92" s="42"/>
       <c r="F92" s="42"/>
       <c r="G92" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H92" s="37" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I92" s="48">
-        <f t="shared" si="13"/>
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="J92" s="49">
-        <f t="shared" si="14"/>
-        <v>0.464285714285714</v>
+        <f t="shared" si="12"/>
+        <v>0.4</v>
       </c>
       <c r="K92" s="63"/>
       <c r="L92" s="64"/>
     </row>
-    <row r="93" outlineLevel="3" spans="1:12">
+    <row r="93" customFormat="1" outlineLevel="3" spans="1:13">
       <c r="A93" s="50" t="s">
         <v>194</v>
       </c>
@@ -6962,28 +6961,30 @@
         <v>195</v>
       </c>
       <c r="C93" s="39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D93" s="39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93" s="42"/>
       <c r="F93" s="42"/>
       <c r="G93" s="36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H93" s="37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I93" s="48">
-        <v>4</v>
+        <f>AVERAGE(C93:D93)</f>
+        <v>6.5</v>
       </c>
       <c r="J93" s="49">
-        <f t="shared" si="14"/>
-        <v>0.4</v>
+        <f>(I93/(H93+G93)*2.5+7/(5+7)*0.5)/3</f>
+        <v>0.548611111111111</v>
       </c>
       <c r="K93" s="63"/>
       <c r="L93" s="64"/>
+      <c r="M93" s="6"/>
     </row>
     <row r="94" s="4" customFormat="1" outlineLevel="2" spans="1:13">
       <c r="A94" s="31" t="s">
@@ -7011,7 +7012,7 @@
         <v>7</v>
       </c>
       <c r="J94" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="K94" s="46"/>
@@ -7378,11 +7379,11 @@
         <v>45</v>
       </c>
       <c r="I118" s="67">
-        <f t="shared" ref="I118:I120" si="15">(C118+D118)/2</f>
+        <f t="shared" ref="I118:I120" si="13">(C118+D118)/2</f>
         <v>5</v>
       </c>
       <c r="J118" s="68">
-        <f t="shared" ref="J118:J120" si="16">I118/(H118+G118)</f>
+        <f t="shared" ref="J118:J120" si="14">I118/(H118+G118)</f>
         <v>0.357142857142857</v>
       </c>
       <c r="K118" s="69"/>
@@ -7414,7 +7415,7 @@
         <v>7</v>
       </c>
       <c r="J119" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="K119" s="69"/>
@@ -7443,11 +7444,11 @@
         <v>48</v>
       </c>
       <c r="I120" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="J120" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.28125</v>
       </c>
       <c r="K120" s="69"/>
@@ -7476,11 +7477,11 @@
         <v>45</v>
       </c>
       <c r="I121" s="67">
-        <f t="shared" ref="I121:I123" si="17">(C121+D121)/2</f>
+        <f t="shared" ref="I121:I123" si="15">(C121+D121)/2</f>
         <v>4.5</v>
       </c>
       <c r="J121" s="68">
-        <f t="shared" ref="J121:J123" si="18">I121/(H121+G121)</f>
+        <f t="shared" ref="J121:J123" si="16">I121/(H121+G121)</f>
         <v>0.321428571428571</v>
       </c>
       <c r="K121" s="69"/>
@@ -7509,11 +7510,11 @@
         <v>45</v>
       </c>
       <c r="I122" s="67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>4.5</v>
       </c>
       <c r="J122" s="68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0.321428571428571</v>
       </c>
       <c r="K122" s="69"/>
@@ -7542,11 +7543,11 @@
         <v>48</v>
       </c>
       <c r="I123" s="67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="J123" s="68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0.4375</v>
       </c>
       <c r="K123" s="69"/>
@@ -7575,11 +7576,11 @@
         <v>45</v>
       </c>
       <c r="I124" s="67">
-        <f t="shared" ref="I124:I129" si="19">(C124+D124)/2</f>
+        <f t="shared" ref="I124:I129" si="17">(C124+D124)/2</f>
         <v>6.5</v>
       </c>
       <c r="J124" s="68">
-        <f t="shared" ref="J124:J129" si="20">I124/(H124+G124)</f>
+        <f t="shared" ref="J124:J129" si="18">I124/(H124+G124)</f>
         <v>0.464285714285714</v>
       </c>
       <c r="K124" s="69"/>
@@ -7608,11 +7609,11 @@
         <v>60</v>
       </c>
       <c r="I125" s="67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="J125" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="K125" s="69"/>
@@ -7644,7 +7645,7 @@
         <v>6</v>
       </c>
       <c r="J126" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.666666666666667</v>
       </c>
       <c r="K126" s="69"/>
@@ -7673,11 +7674,11 @@
         <v>45</v>
       </c>
       <c r="I127" s="67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>5.5</v>
       </c>
       <c r="J127" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.392857142857143</v>
       </c>
       <c r="K127" s="69"/>
@@ -7706,11 +7707,11 @@
         <v>48</v>
       </c>
       <c r="I128" s="67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6.5</v>
       </c>
       <c r="J128" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.40625</v>
       </c>
       <c r="K128" s="69"/>
@@ -7739,11 +7740,11 @@
         <v>48</v>
       </c>
       <c r="I129" s="67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="J129" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.375</v>
       </c>
       <c r="K129" s="69"/>
@@ -7791,7 +7792,7 @@
         <v>8</v>
       </c>
       <c r="J131" s="68">
-        <f t="shared" ref="J131:J143" si="21">I131/(H131+G131)</f>
+        <f t="shared" ref="J131:J143" si="19">I131/(H131+G131)</f>
         <v>0.666666666666667</v>
       </c>
       <c r="K131" s="69"/>
@@ -7823,7 +7824,7 @@
         <v>9</v>
       </c>
       <c r="J132" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.5625</v>
       </c>
       <c r="K132" s="69"/>
@@ -7855,7 +7856,7 @@
         <v>9</v>
       </c>
       <c r="J133" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.642857142857143</v>
       </c>
       <c r="K133" s="69"/>
@@ -7887,7 +7888,7 @@
         <v>8</v>
       </c>
       <c r="J134" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.666666666666667</v>
       </c>
       <c r="K134" s="69"/>
@@ -7920,7 +7921,7 @@
         <v>6</v>
       </c>
       <c r="J135" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.6</v>
       </c>
       <c r="K135" s="69"/>
@@ -7952,7 +7953,7 @@
         <v>5</v>
       </c>
       <c r="J136" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="K136" s="69"/>
@@ -7985,7 +7986,7 @@
         <v>5.5</v>
       </c>
       <c r="J137" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.392857142857143</v>
       </c>
       <c r="K137" s="69"/>
@@ -8018,7 +8019,7 @@
         <v>6.5</v>
       </c>
       <c r="J138" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.40625</v>
       </c>
       <c r="K138" s="69"/>
@@ -8051,7 +8052,7 @@
         <v>6</v>
       </c>
       <c r="J139" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.375</v>
       </c>
       <c r="K139" s="69"/>
@@ -8084,7 +8085,7 @@
         <v>6.5</v>
       </c>
       <c r="J140" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.464285714285714</v>
       </c>
       <c r="K140" s="69"/>
@@ -8116,7 +8117,7 @@
         <v>9</v>
       </c>
       <c r="J141" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.5625</v>
       </c>
       <c r="K141" s="69"/>
@@ -8148,7 +8149,7 @@
         <v>9</v>
       </c>
       <c r="J142" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.642857142857143</v>
       </c>
       <c r="K142" s="69"/>
@@ -8180,7 +8181,7 @@
         <v>9</v>
       </c>
       <c r="J143" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.692307692307692</v>
       </c>
       <c r="K143" s="69"/>
@@ -8225,11 +8226,11 @@
         <v>48</v>
       </c>
       <c r="I145" s="67">
-        <f t="shared" ref="I145:I152" si="22">(C145+D145)/2</f>
+        <f t="shared" ref="I145:I152" si="20">(C145+D145)/2</f>
         <v>6.5</v>
       </c>
       <c r="J145" s="68">
-        <f t="shared" ref="J145:J152" si="23">I145/(H145+G145)</f>
+        <f t="shared" ref="J145:J152" si="21">I145/(H145+G145)</f>
         <v>0.40625</v>
       </c>
       <c r="K145" s="69"/>
@@ -8258,11 +8259,11 @@
         <v>48</v>
       </c>
       <c r="I146" s="67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="J146" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.375</v>
       </c>
       <c r="K146" s="69"/>
@@ -8291,11 +8292,11 @@
         <v>45</v>
       </c>
       <c r="I147" s="67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>5.5</v>
       </c>
       <c r="J147" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.392857142857143</v>
       </c>
       <c r="K147" s="69"/>
@@ -8324,11 +8325,11 @@
         <v>48</v>
       </c>
       <c r="I148" s="67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="J148" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.375</v>
       </c>
       <c r="K148" s="69"/>
@@ -8357,11 +8358,11 @@
         <v>48</v>
       </c>
       <c r="I149" s="67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="J149" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="K149" s="69"/>
@@ -8390,11 +8391,11 @@
         <v>48</v>
       </c>
       <c r="I150" s="67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="J150" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.375</v>
       </c>
       <c r="K150" s="69"/>
@@ -8423,11 +8424,11 @@
         <v>48</v>
       </c>
       <c r="I151" s="67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>6.5</v>
       </c>
       <c r="J151" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.541666666666667</v>
       </c>
       <c r="K151" s="69"/>
@@ -8456,11 +8457,11 @@
         <v>48</v>
       </c>
       <c r="I152" s="67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>5.5</v>
       </c>
       <c r="J152" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.34375</v>
       </c>
       <c r="K152" s="69"/>
@@ -8528,7 +8529,7 @@
         <v>5.5</v>
       </c>
       <c r="J155" s="68">
-        <f t="shared" ref="J154:J169" si="24">I155/(H155+G155)</f>
+        <f t="shared" ref="J154:J169" si="22">I155/(H155+G155)</f>
         <v>0.392857142857143</v>
       </c>
       <c r="K155" s="69"/>
@@ -8560,7 +8561,7 @@
         <v>9</v>
       </c>
       <c r="J156" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.75</v>
       </c>
       <c r="K156" s="69"/>
@@ -8592,7 +8593,7 @@
         <v>7</v>
       </c>
       <c r="J157" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.4375</v>
       </c>
       <c r="K157" s="69"/>
@@ -8621,11 +8622,11 @@
         <v>48</v>
       </c>
       <c r="I158" s="67">
-        <f t="shared" ref="I158:I163" si="25">(C158+D158)/2</f>
+        <f t="shared" ref="I158:I163" si="23">(C158+D158)/2</f>
         <v>4</v>
       </c>
       <c r="J158" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
       <c r="K158" s="69"/>
@@ -8654,11 +8655,11 @@
         <v>48</v>
       </c>
       <c r="I159" s="67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="J159" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
       <c r="K159" s="69"/>
@@ -8687,11 +8688,11 @@
         <v>48</v>
       </c>
       <c r="I160" s="67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>7.5</v>
       </c>
       <c r="J160" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.46875</v>
       </c>
       <c r="K160" s="69"/>
@@ -8720,11 +8721,11 @@
         <v>48</v>
       </c>
       <c r="I161" s="67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="J161" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.375</v>
       </c>
       <c r="K161" s="69"/>
@@ -8753,11 +8754,11 @@
         <v>45</v>
       </c>
       <c r="I162" s="67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="J162" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.428571428571429</v>
       </c>
       <c r="K162" s="69"/>
@@ -8786,11 +8787,11 @@
         <v>53</v>
       </c>
       <c r="I163" s="67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="J163" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.333333333333333</v>
       </c>
       <c r="K163" s="69"/>
@@ -8822,7 +8823,7 @@
         <v>9</v>
       </c>
       <c r="J164" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.642857142857143</v>
       </c>
       <c r="K164" s="69"/>
@@ -8855,7 +8856,7 @@
         <v>6</v>
       </c>
       <c r="J165" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
       <c r="K165" s="69"/>
@@ -8888,7 +8889,7 @@
         <v>5</v>
       </c>
       <c r="J166" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.357142857142857</v>
       </c>
       <c r="K166" s="69"/>
@@ -8921,7 +8922,7 @@
         <v>5</v>
       </c>
       <c r="J167" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.416666666666667</v>
       </c>
       <c r="K167" s="69"/>
@@ -8985,11 +8986,11 @@
         <v>53</v>
       </c>
       <c r="I170" s="67">
-        <f t="shared" ref="I170:I180" si="26">(C170+D170)/2</f>
+        <f t="shared" ref="I170:I180" si="24">(C170+D170)/2</f>
         <v>5.5</v>
       </c>
       <c r="J170" s="68">
-        <f t="shared" ref="J170:J180" si="27">I170/(H170+G170)</f>
+        <f t="shared" ref="J170:J180" si="25">I170/(H170+G170)</f>
         <v>0.5</v>
       </c>
       <c r="K170" s="69"/>
@@ -9018,11 +9019,11 @@
         <v>45</v>
       </c>
       <c r="I171" s="67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="J171" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
       <c r="K171" s="69"/>
@@ -9051,11 +9052,11 @@
         <v>45</v>
       </c>
       <c r="I172" s="67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>6.5</v>
       </c>
       <c r="J172" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.464285714285714</v>
       </c>
       <c r="K172" s="69"/>
@@ -9084,11 +9085,11 @@
         <v>45</v>
       </c>
       <c r="I173" s="67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>6.5</v>
       </c>
       <c r="J173" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.464285714285714</v>
       </c>
       <c r="K173" s="69"/>
@@ -9117,11 +9118,11 @@
         <v>45</v>
       </c>
       <c r="I174" s="67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>5.5</v>
       </c>
       <c r="J174" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.392857142857143</v>
       </c>
       <c r="K174" s="69"/>
@@ -9150,11 +9151,11 @@
         <v>60</v>
       </c>
       <c r="I175" s="67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="J175" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.363636363636364</v>
       </c>
       <c r="K175" s="69"/>
@@ -9183,11 +9184,11 @@
         <v>48</v>
       </c>
       <c r="I176" s="67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>4.5</v>
       </c>
       <c r="J176" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.28125</v>
       </c>
       <c r="K176" s="69"/>
@@ -9216,11 +9217,11 @@
         <v>53</v>
       </c>
       <c r="I177" s="67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="J177" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.416666666666667</v>
       </c>
       <c r="K177" s="69"/>
@@ -9249,11 +9250,11 @@
         <v>53</v>
       </c>
       <c r="I178" s="67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="J178" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.583333333333333</v>
       </c>
       <c r="K178" s="69"/>
@@ -9282,11 +9283,11 @@
         <v>45</v>
       </c>
       <c r="I179" s="67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>5.5</v>
       </c>
       <c r="J179" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.392857142857143</v>
       </c>
       <c r="K179" s="69"/>
@@ -9315,11 +9316,11 @@
         <v>45</v>
       </c>
       <c r="I180" s="67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>5.5</v>
       </c>
       <c r="J180" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.392857142857143</v>
       </c>
       <c r="K180" s="69"/>
@@ -9368,7 +9369,7 @@
         <v>6</v>
       </c>
       <c r="J182" s="68">
-        <f t="shared" ref="J181:J202" si="28">I182/(H182+G182)</f>
+        <f t="shared" ref="J181:J202" si="26">I182/(H182+G182)</f>
         <v>0.428571428571429</v>
       </c>
       <c r="K182" s="69"/>
@@ -9401,7 +9402,7 @@
         <v>5.5</v>
       </c>
       <c r="J183" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.6875</v>
       </c>
       <c r="K183" s="69"/>
@@ -9434,7 +9435,7 @@
         <v>5.5</v>
       </c>
       <c r="J184" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="K184" s="69"/>
@@ -9466,7 +9467,7 @@
         <v>9</v>
       </c>
       <c r="J185" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.6</v>
       </c>
       <c r="K185" s="69"/>
@@ -9499,7 +9500,7 @@
         <v>8</v>
       </c>
       <c r="J186" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.666666666666667</v>
       </c>
       <c r="K186" s="69"/>
@@ -9532,7 +9533,7 @@
         <v>4.5</v>
       </c>
       <c r="J187" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.375</v>
       </c>
       <c r="K187" s="69"/>
@@ -9565,7 +9566,7 @@
         <v>6.5</v>
       </c>
       <c r="J188" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.464285714285714</v>
       </c>
       <c r="K188" s="69"/>
@@ -9597,7 +9598,7 @@
         <v>9</v>
       </c>
       <c r="J189" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.6</v>
       </c>
       <c r="K189" s="69"/>
@@ -9630,7 +9631,7 @@
         <v>6.5</v>
       </c>
       <c r="J190" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.464285714285714</v>
       </c>
       <c r="K190" s="69"/>
@@ -9663,7 +9664,7 @@
         <v>4.5</v>
       </c>
       <c r="J191" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.321428571428571</v>
       </c>
       <c r="K191" s="69"/>
@@ -9696,7 +9697,7 @@
         <v>6.5</v>
       </c>
       <c r="J192" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.464285714285714</v>
       </c>
       <c r="K192" s="69"/>
@@ -9744,7 +9745,7 @@
         <v>8</v>
       </c>
       <c r="J194" s="49">
-        <f t="shared" ref="J194:J199" si="29">I194/(H194+G194)</f>
+        <f t="shared" ref="J194:J199" si="27">I194/(H194+G194)</f>
         <v>0.571428571428571</v>
       </c>
     </row>
@@ -9770,11 +9771,11 @@
         <v>45</v>
       </c>
       <c r="I195" s="75">
-        <f t="shared" ref="I194:I199" si="30">(C195+D195)/2</f>
+        <f t="shared" ref="I194:I199" si="28">(C195+D195)/2</f>
         <v>5</v>
       </c>
       <c r="J195" s="49">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.357142857142857</v>
       </c>
     </row>
@@ -9800,11 +9801,11 @@
         <v>48</v>
       </c>
       <c r="I196" s="75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="J196" s="49">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.4375</v>
       </c>
     </row>
@@ -9830,11 +9831,11 @@
         <v>48</v>
       </c>
       <c r="I197" s="75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="J197" s="49">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.375</v>
       </c>
     </row>
@@ -9860,11 +9861,11 @@
         <v>45</v>
       </c>
       <c r="I198" s="75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="J198" s="49">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
     </row>
@@ -9890,11 +9891,11 @@
         <v>45</v>
       </c>
       <c r="I199" s="75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="J199" s="49">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10663,7 +10664,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="G66 G67:G68 G69:G71 G72:G73 G74:G75 H66 H67:H68 H69:H71 H72:H73 H74:H75" numberStoredAsText="1"/>
+    <ignoredError sqref="G66 G67 G68:G70 G71:G72 G73:G74 H66 H67 H68:H70 H71:H72 H73:H74" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/受控文档/需求分析/QFD/PRD2018-G07-QFD 打分表合集.xlsx
+++ b/受控文档/需求分析/QFD/PRD2018-G07-QFD 打分表合集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16500" windowHeight="8975" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="3" r:id="rId1"/>
@@ -348,7 +348,7 @@
     <t>1.1.1.12</t>
   </si>
   <si>
-    <t xml:space="preserve">    查看钓点信息</t>
+    <t xml:space="preserve">    查看地点信息</t>
   </si>
   <si>
     <t>1.1.2</t>
@@ -2316,9 +2316,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
@@ -2359,53 +2359,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2414,28 +2367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2449,11 +2381,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2473,6 +2412,67 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -2481,13 +2481,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2498,6 +2491,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2524,7 +2524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2536,13 +2536,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2554,13 +2608,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2572,31 +2668,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2609,102 +2705,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3087,17 +3087,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3117,26 +3144,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3152,24 +3170,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3192,10 +3192,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3204,133 +3204,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4454,8 +4454,8 @@
   </sheetPr>
   <dimension ref="A1:M261"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -10629,7 +10629,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="H72:H73 H70:H71 H68:H69 H67 H66 G72:G73 G70:G71 G68:G69 G67 G66" numberStoredAsText="1"/>
+    <ignoredError sqref="G66 G67 G68:G69 G70:G71 G72:G73 H66 H67 H68:H69 H70:H71 H72:H73" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/受控文档/需求分析/QFD/PRD2018-G07-QFD 打分表合集.xlsx
+++ b/受控文档/需求分析/QFD/PRD2018-G07-QFD 打分表合集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="13188" windowHeight="9084" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="3" r:id="rId1"/>
@@ -348,7 +348,7 @@
     <t>1.1.1.12</t>
   </si>
   <si>
-    <t xml:space="preserve">    查看地点信息</t>
+    <t xml:space="preserve">    查看地点详细信息</t>
   </si>
   <si>
     <t>1.1.2</t>
@@ -2315,10 +2315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
@@ -2359,8 +2359,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2373,14 +2397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -2388,26 +2404,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2427,16 +2434,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2445,36 +2453,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2489,8 +2467,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2524,7 +2524,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2536,67 +2602,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2608,91 +2644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2705,6 +2657,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3087,35 +3087,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3144,6 +3126,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3159,16 +3150,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3176,10 +3178,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3192,10 +3192,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3204,133 +3204,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4454,8 +4454,8 @@
   </sheetPr>
   <dimension ref="A1:M261"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -10629,7 +10629,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="G66 G67 G68:G69 G70:G71 G72:G73 H66 H67 H68:H69 H70:H71 H72:H73" numberStoredAsText="1"/>
+    <ignoredError sqref="H72:H73 H70:H71 H68:H69 H67 H66 G72:G73 G70:G71 G68:G69 G67 G66" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
